--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2353086.244220374</v>
+        <v>2428615.91388518</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9700744.67490834</v>
+        <v>9700744.674908344</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>137.6028284655364</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>172.56511195609</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>102.7581435168529</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>365.0430756163825</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>354.752216257426</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>58.69923944397664</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>127.0044127072324</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>138.5080857269344</v>
       </c>
       <c r="V8" t="n">
-        <v>266.8105066124069</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>49.4393105951032</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642759</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>79.53445373082772</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>122.6519788371564</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>55.9947769807283</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.557280961126496</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>256.7021686190619</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238318</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>118.391307110626</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151881</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>127.2009505913956</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.932713005354217</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>173.3937386097687</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>101.0041688483414</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2843,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>71.03759657939787</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>81.60584122591204</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>81.10383182969055</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>143.3654649268955</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>6.492043968023752</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.4285848360766</v>
+        <v>175.0698676614148</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>174.3062600431768</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185877</v>
+        <v>168.7321636710902</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1104.379069117473</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1104.379069117473</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>746.1133705107225</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>360.3251179124782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2522.840897123182</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2522.840897123182</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2522.840897123182</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2522.840897123182</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2522.840897123182</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2149.375138862102</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>2149.375138862102</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.2708856551155</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2708856551155</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2708856551155</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551155</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2708856551155</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2708856551155</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.08349269302</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1937.08349269302</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1578.817794086269</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757142</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.683332757142</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036443</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036443</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036443</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036443</v>
+        <v>113.2351428748863</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600558</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600558</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036443</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036443</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036443</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036443</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036443</v>
+        <v>261.1482364572794</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274026</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274026</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274026</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2283.578577220845</v>
       </c>
       <c r="V8" t="n">
-        <v>2372.61483931396</v>
+        <v>1952.515689877274</v>
       </c>
       <c r="W8" t="n">
-        <v>2372.61483931396</v>
+        <v>1952.515689877274</v>
       </c>
       <c r="X8" t="n">
-        <v>2372.61483931396</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="Y8" t="n">
-        <v>1982.475507338148</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>678.1902866356228</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>678.1902866356228</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>678.1902866356228</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>389.0166762901907</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323707025</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323707025</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028205</v>
+        <v>653.9727323707025</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028205</v>
+        <v>506.0596387883094</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028205</v>
+        <v>359.169691290399</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028205</v>
+        <v>359.169691290399</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028205</v>
+        <v>208.7516828383423</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028205</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241919</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688034</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471155</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557899</v>
+        <v>1418.578438506561</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347405</v>
+        <v>1418.578438506561</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609628</v>
+        <v>1129.449799720119</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550759</v>
+        <v>874.7653115142326</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181153</v>
+        <v>874.7653115142326</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>874.7653115142326</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323707025</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>583.9053937591889</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.3977182706279</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>362.461535342721</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>212.3448959303853</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>212.3448959303853</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>212.3448959303853</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>212.3448959303853</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>904.7606320919992</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706279</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706279</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X19" t="n">
-        <v>531.3977182706279</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.3977182706279</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5765,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>364.7173639423012</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>364.7173639423012</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>364.7173639423012</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>216.8042703599081</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>216.8042703599081</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5929,31 +5931,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557899</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473451</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262957</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>364.7173639423012</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4200.736204767672</v>
+        <v>4094.29663151949</v>
       </c>
       <c r="C25" t="n">
-        <v>4072.250396089495</v>
+        <v>3925.360448591583</v>
       </c>
       <c r="D25" t="n">
-        <v>3922.133756677159</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="E25" t="n">
-        <v>3774.220663094766</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596856</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>4858.902337655349</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>4858.902337655349</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>4858.902337655349</v>
       </c>
       <c r="U25" t="n">
-        <v>4637.069157803799</v>
+        <v>4569.773698868907</v>
       </c>
       <c r="V25" t="n">
-        <v>4382.384669597912</v>
+        <v>4315.08921066302</v>
       </c>
       <c r="W25" t="n">
-        <v>4382.384669597912</v>
+        <v>4315.08921066302</v>
       </c>
       <c r="X25" t="n">
-        <v>4382.384669597912</v>
+        <v>4315.08921066302</v>
       </c>
       <c r="Y25" t="n">
-        <v>4382.384669597912</v>
+        <v>4094.29663151949</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6251,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1212.69597660481</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1212.69597660481</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1212.69597660481</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V28" t="n">
-        <v>958.0114883989231</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W28" t="n">
-        <v>668.5943183619626</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619626</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,13 +6463,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,19 +6478,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>2896.654173359328</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>3644.018355938593</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>3973.880983602626</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>4253.421048821323</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>484.0375086983735</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C31" t="n">
-        <v>484.0375086983735</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D31" t="n">
-        <v>484.0375086983735</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X31" t="n">
-        <v>665.6859735286132</v>
+        <v>761.3093662244439</v>
       </c>
       <c r="Y31" t="n">
-        <v>665.6859735286132</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2722.801152901741</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>3336.69822265863</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3644.018355938592</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>993.2877828087276</v>
+        <v>843.8929204411535</v>
       </c>
       <c r="C34" t="n">
-        <v>824.3515998808207</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684849</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684849</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1416.99320810367</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1217.073198019222</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>993.2877828087276</v>
+        <v>1354.102669621644</v>
       </c>
       <c r="U34" t="n">
-        <v>993.2877828087276</v>
+        <v>1354.102669621644</v>
       </c>
       <c r="V34" t="n">
-        <v>993.2877828087276</v>
+        <v>1354.102669621644</v>
       </c>
       <c r="W34" t="n">
-        <v>993.2877828087276</v>
+        <v>1064.685499584684</v>
       </c>
       <c r="X34" t="n">
-        <v>993.2877828087276</v>
+        <v>1064.685499584684</v>
       </c>
       <c r="Y34" t="n">
-        <v>993.2877828087276</v>
+        <v>843.8929204411535</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6922,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6934,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>3665.022319751788</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>3994.884947415821</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7126,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>524.8400981009108</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,25 +7195,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>3446.276123502708</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>3776.138751166741</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>4055.678816385438</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4575.979438121186</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632138</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>1498.916270557902</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.926719659885</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y40" t="n">
-        <v>1270.926719659885</v>
+        <v>385.5899330013836</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405893</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X43" t="n">
-        <v>392.0201325405893</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.0201325405893</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
@@ -7643,49 +7645,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270198</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.28657940933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>52.497333613053</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>369.0893880493732</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>444.4889386861652</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,25 +10427,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>73.64859338270546</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720754</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>297.2466435761028</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231142</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>38.86002301949898</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>118.3863562527755</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>103.0576765518808</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>90.43918566584087</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>145.3565474064096</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>29.53518377951542</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>48.1022613527516</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338929</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>40.04587050723225</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>108.0316393984386</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>24.52707137383456</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>124.7054865406958</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>75.3963660671713</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,7 +24894,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>144.1038141631251</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.86052057410224</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>78.18209613149372</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.0309543685672</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.40339534586067</v>
+        <v>4.762112520522521</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>47.24130101521246</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>176.3280338692828</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871784</v>
+        <v>56.97749171794698</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327923</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="N2" t="n">
         <v>547440.6836327922</v>
@@ -26353,7 +26355,7 @@
         <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007432</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007449</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007431</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007431</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007436</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26525,34 +26527,34 @@
         <v>343953.1121256686</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256683</v>
+        <v>343953.1121256684</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.4104488286</v>
+        <v>-77623.41044882791</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.626028068</v>
+        <v>447536.6260280681</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.6260280679</v>
+        <v>447536.6260280681</v>
       </c>
       <c r="H6" t="n">
         <v>447536.626028068</v>
       </c>
       <c r="I6" t="n">
+        <v>447536.6260280679</v>
+      </c>
+      <c r="J6" t="n">
+        <v>271113.4068354749</v>
+      </c>
+      <c r="K6" t="n">
+        <v>447536.6260280684</v>
+      </c>
+      <c r="L6" t="n">
         <v>447536.626028068</v>
       </c>
-      <c r="J6" t="n">
-        <v>271113.406835475</v>
-      </c>
-      <c r="K6" t="n">
-        <v>447536.6260280681</v>
-      </c>
-      <c r="L6" t="n">
-        <v>447536.6260280682</v>
-      </c>
       <c r="M6" t="n">
-        <v>312735.6107942306</v>
+        <v>312735.6107942312</v>
       </c>
       <c r="N6" t="n">
         <v>447536.6260280681</v>
@@ -26561,7 +26563,7 @@
         <v>447536.6260280681</v>
       </c>
       <c r="P6" t="n">
-        <v>447536.626028068</v>
+        <v>447536.6260280681</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>269.273217276175</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.850600852881513</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>17.40933785016563</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>183.7648548197382</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>16.88729445587933</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>14.97888442104301</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>86.72180857895461</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853703</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>85.1411262427865</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>112.7160817813549</v>
       </c>
       <c r="V8" t="n">
-        <v>60.94175185772798</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>97.22588138505466</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28108,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28266,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.581773764546721e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29563,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-6.371257144362727e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34936,25 +34938,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856238</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>588.0961736712732</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>259.5907485445777</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>679.5137650998395</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187101</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36449,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366315</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>224.2240319706447</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415095</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>579.6103458172109</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37637,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081883</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>189.4354616074382</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2428615.91388518</v>
+        <v>2421598.898993468</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9700744.674908344</v>
+        <v>9700744.674908342</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>137.6028284655364</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>320.797539652425</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>102.7581435168529</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>60.96568666999332</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>354.752216257426</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>58.69923944397664</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>74.24596078692618</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>138.5080857269344</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8.715333384834437</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642759</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>79.53445373082772</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3012794317885</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>55.9947769807283</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>29.29390976851197</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>256.7021686190619</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>118.391307110626</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.932713005354217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,7 +2769,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>101.0041688483414</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>81.60584122591204</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>143.3654649268955</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>6.492043968023752</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.0698676614148</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>225.1809026611657</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.7321636710902</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.379069117473</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.379069117473</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>746.1133705107225</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>360.3251179124782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1193.718655425422</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>835.4529568186713</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>449.664704220427</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>442.7192034712236</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>261.1482364572794</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>261.1482364572794</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>113.2351428748863</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2283.578577220845</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.515689877274</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.515689877274</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1579.049931616194</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.049931616194</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4889,7 +4889,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1503.408902298185</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.9727323707025</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9727323707025</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323707025</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.169691290399</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.169691290399</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1418.578438506561</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1418.578438506561</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1129.449799720119</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>874.7653115142326</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>874.7653115142326</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>874.7653115142326</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y13" t="n">
-        <v>653.9727323707025</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.0220331715246</v>
+        <v>610.8083514132643</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0220331715246</v>
+        <v>441.8721684853574</v>
       </c>
       <c r="D16" t="n">
-        <v>583.9053937591889</v>
+        <v>441.8721684853574</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>441.8721684853574</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>294.982220987447</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>126.8068993072676</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>126.8068993072676</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150548</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715246</v>
+        <v>792.456816243504</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5560,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>904.7606320919992</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>650.0761438861124</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>650.0761438861124</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>650.0761438861124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,25 +5734,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028564</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5834,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.7173639423012</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>364.7173639423012</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
-        <v>364.7173639423012</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E22" t="n">
-        <v>216.8042703599081</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F22" t="n">
-        <v>216.8042703599081</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>874.927113122792</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>874.927113122792</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>585.5099430858313</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>585.5099430858313</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.7173639423012</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,25 +5977,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,7 +6004,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>261.8048459311029</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4094.29663151949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3925.360448591583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4858.902337655349</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4858.902337655349</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4858.902337655349</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4569.773698868907</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>4315.08921066302</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>4315.08921066302</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>4315.08921066302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4094.29663151949</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2338.698370483031</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6408,25 +6408,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>709.4512536188992</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>420.0340835819385</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,22 +6475,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2649.889045452864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2896.654173359328</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3644.018355938593</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3973.880983602626</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>843.7395088768803</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>761.3093662244439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>540.5167870809138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2722.801152901741</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3336.69822265863</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3644.018355938592</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>843.8929204411535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1354.102669621644</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1354.102669621644</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1354.102669621644</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>1064.685499584684</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.685499584684</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.8929204411535</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3665.022319751788</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3994.884947415821</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>524.8400981009108</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>524.8400981009108</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>3776.138751166741</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4055.678816385438</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4575.979438121186</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>385.5899330013836</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1322.84934122136</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1322.84934122136</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1322.84934122136</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1322.84934122136</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>1322.84934122136</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>326.2492756170072</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>940.1463453738959</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.7466045204288</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>755.183133481126</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>584.7466045204288</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.7466045204288</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>277.671796620807</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>52.497333613053</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>369.0893880493732</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>124.3400780863227</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>199.7396287231151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>444.4889386861652</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.64859338270546</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>297.2466435761028</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.7396287231142</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>213.260391180663</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>38.86002301949898</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>118.3863562527755</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>57.2833739203063</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>90.43918566584087</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.12533569576001</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>29.53518377951542</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>48.1022613527516</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>108.0316393984386</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>124.7054865406958</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>144.1038141631251</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>78.18209613149372</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.0309543685672</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.762112520522521</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>47.24130101521246</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>56.97749171794698</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>828289.9634146203</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327923</v>
-      </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,22 +26429,22 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007483</v>
@@ -26456,10 +26456,10 @@
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.7670888758</v>
+        <v>-246014.7670888762</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256686</v>
+        <v>343953.1121256687</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256684</v>
+        <v>343953.1121256682</v>
       </c>
       <c r="E6" t="n">
-        <v>-77623.41044882791</v>
+        <v>-78598.00170854969</v>
       </c>
       <c r="F6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="G6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="H6" t="n">
-        <v>447536.626028068</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="I6" t="n">
-        <v>447536.6260280679</v>
+        <v>446562.034768346</v>
       </c>
       <c r="J6" t="n">
-        <v>271113.4068354749</v>
+        <v>270138.8155757532</v>
       </c>
       <c r="K6" t="n">
-        <v>447536.6260280684</v>
+        <v>446562.0347683461</v>
       </c>
       <c r="L6" t="n">
-        <v>447536.626028068</v>
+        <v>446562.0347683462</v>
       </c>
       <c r="M6" t="n">
-        <v>312735.6107942312</v>
+        <v>311761.0195345092</v>
       </c>
       <c r="N6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683463</v>
       </c>
       <c r="O6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683462</v>
       </c>
       <c r="P6" t="n">
-        <v>447536.6260280681</v>
+        <v>446562.0347683462</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>269.273217276175</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>6.954718817709931</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>183.7648548197382</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>352.8184833508017</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>14.97888442104301</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>86.72180857895461</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>339.5382092338688</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>112.7160817813549</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>171.1166467971029</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.581773764546721e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.371257144362727e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>588.0961736712732</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>353.8818559928188</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>259.5907485445777</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221117</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>166.2502570412294</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>287.7526615081892</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>754.9133157366315</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>224.2240319706447</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>579.6103458172109</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>287.7526615081883</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>420.3538061121876</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>189.4354616074382</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2421598.898993468</v>
+        <v>2426538.1618425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>320.797539652425</v>
+        <v>266.3191370776132</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>67.33783650784304</v>
       </c>
       <c r="G8" t="n">
-        <v>74.24596078692618</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.715333384834437</v>
+        <v>8.715333384834549</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>100.3759239302645</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.3012794317885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206855</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.29390976851197</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>176.8407062429513</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634834</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710098</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056521</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766701</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206865</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151908</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467007</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>276.149182357083</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>225.1809026611657</v>
+        <v>78.59792493103012</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5269768002176</v>
+        <v>114.930904319359</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,16 +4354,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
         <v>2373.111172177389</v>
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4780,64 +4780,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E8" t="n">
-        <v>135.884402556362</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071586</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
         <v>2366.086203674652</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4953,16 +4953,16 @@
         <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550606</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155915</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805497</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822489</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121734</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614728</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>564.1830073829217</v>
       </c>
       <c r="C13" t="n">
         <v>395.2468244550147</v>
@@ -5184,31 +5184,31 @@
         <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>973.8210231111788</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>973.8210231111788</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655738</v>
+        <v>973.8210231111788</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675564</v>
+        <v>745.8314722131614</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.1830073829216</v>
+        <v>745.8314722131614</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5269,61 +5269,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.8083514132643</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>441.8721684853574</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D16" t="n">
-        <v>441.8721684853574</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E16" t="n">
-        <v>441.8721684853574</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>294.982220987447</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G16" t="n">
-        <v>126.8068993072676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>126.8068993072676</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>896.58386925998</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X16" t="n">
-        <v>792.456816243504</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y16" t="n">
-        <v>792.456816243504</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,10 +6001,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
         <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550606</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6220,19 +6220,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014296</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231267</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141871</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465305</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121734</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.52631485162</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.06055659054</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614728</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011511</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952642</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583034</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,31 +6639,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6858,16 +6858,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7095,16 +7095,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,31 +7113,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>755.1831334811267</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7675,22 +7675,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="F46" t="n">
-        <v>213.9110074201016</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229571</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>104.6241510367944</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>423.3376789165105</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298192</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>180.0237016735871</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>185.8614284683128</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.2833739203063</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>81.12533569576001</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>75.29693708087672</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>64.30500338171919</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.3938331833867</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>14.74113413690256</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799408</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10.08817004149438</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>61.3420956754253</v>
+        <v>207.9250734055609</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.96659166315999</v>
+        <v>51.56266414401857</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828289.9634146205</v>
+        <v>828289.9634146204</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146203</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>828289.9634146204</v>
+        <v>828289.9634146205</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327922</v>
@@ -26328,34 +26328,34 @@
         <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="H2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.683632792</v>
-      </c>
       <c r="M2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.73165600735</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.73165600735</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.73165600735</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007376</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007278</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007479</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007478</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007478</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007478</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007478</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246014.7670888762</v>
+        <v>-246014.7670888761</v>
       </c>
       <c r="C6" t="n">
-        <v>343953.1121256687</v>
+        <v>343953.1121256686</v>
       </c>
       <c r="D6" t="n">
-        <v>343953.1121256682</v>
+        <v>343953.1121256684</v>
       </c>
       <c r="E6" t="n">
-        <v>-78598.00170854969</v>
+        <v>-77720.86957480058</v>
       </c>
       <c r="F6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020959</v>
       </c>
       <c r="G6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020958</v>
       </c>
       <c r="H6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="I6" t="n">
-        <v>446562.034768346</v>
+        <v>447439.1669020959</v>
       </c>
       <c r="J6" t="n">
-        <v>270138.8155757532</v>
+        <v>271015.9477095031</v>
       </c>
       <c r="K6" t="n">
-        <v>446562.0347683461</v>
+        <v>447439.166902096</v>
       </c>
       <c r="L6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020956</v>
       </c>
       <c r="M6" t="n">
-        <v>311761.0195345092</v>
+        <v>312638.1516682583</v>
       </c>
       <c r="N6" t="n">
-        <v>446562.0347683463</v>
+        <v>447439.166902096</v>
       </c>
       <c r="O6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020957</v>
       </c>
       <c r="P6" t="n">
-        <v>446562.0347683462</v>
+        <v>447439.1669020962</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,25 +26795,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>6.954718817709931</v>
+        <v>61.43312139252174</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>339.5382092338684</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>339.5382092338688</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.1166467971029</v>
+        <v>171.1166467971028</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-2.687866841001853e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28146,13 +28146,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28326,13 +28326,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-2.52100192090846e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2.771299301048549e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28800,10 +28800,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-8.343246004669611e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-2.250999386887997e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-3.601599019020796e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="29">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,43 +33022,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,43 +33496,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,43 +33733,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,43 +33970,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,43 +34207,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734236</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>353.8818559928188</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>756.5322523145236</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2814066296115</v>
+        <v>429.2814066296106</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
